--- a/result/result-average.xlsx
+++ b/result/result-average.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D466F0-2589-4588-8622-16405DD370F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297C867-B2F0-1F45-B32E-132819D575C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3415,8 +3418,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8270874" y="3124200"/>
-          <a:ext cx="7388225" cy="4467224"/>
+          <a:off x="8905874" y="3282950"/>
+          <a:ext cx="8023225" cy="4698999"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3517,8 +3520,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9478285" y="3734283"/>
-              <a:ext cx="5956136" cy="2766786"/>
+              <a:off x="9478285" y="3780351"/>
+              <a:ext cx="5856965" cy="2720719"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3563,8 +3566,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9584727" y="3859765"/>
-              <a:ext cx="6084455" cy="2812143"/>
+              <a:off x="9518650" y="3754693"/>
+              <a:ext cx="6375400" cy="2946614"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3981,13 +3984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>0.49411764705882355</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>0.54705882352941182</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
